--- a/Report/report_2024.xlsx
+++ b/Report/report_2024.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Дата</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Баг фикс</t>
+  </si>
+  <si>
+    <t>22-01-2024</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,7 +450,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,7 +583,18 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="D9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="4"/>
@@ -608,7 +622,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="6">
         <f>SUM(D2:D51)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
